--- a/BackTest/2020-01-21 BackTest IPX.xlsx
+++ b/BackTest/2020-01-21 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-96033.31863105002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-91748.96223105001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>55.93</v>
@@ -521,7 +521,7 @@
         <v>-93841.19323105001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>55.95</v>
@@ -562,7 +562,7 @@
         <v>-89608.55123105002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>55.93</v>
@@ -603,7 +603,7 @@
         <v>-91790.24763105002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>56.01</v>
@@ -644,7 +644,7 @@
         <v>-88999.14013105002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>55.98</v>
@@ -685,7 +685,7 @@
         <v>-88999.14013105002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>56.08</v>
@@ -726,7 +726,7 @@
         <v>-86836.59563105002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>56.08</v>
@@ -767,7 +767,7 @@
         <v>-89629.31393105001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>56.1</v>
@@ -808,7 +808,7 @@
         <v>-85430.63553105001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>56.09</v>
@@ -849,7 +849,7 @@
         <v>-71279.71846877201</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>56.15</v>
@@ -890,7 +890,7 @@
         <v>-70579.93876877202</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>56.2</v>
@@ -931,7 +931,7 @@
         <v>-65482.85166877202</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>56.33</v>
@@ -972,7 +972,7 @@
         <v>-78501.63226877202</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>56.42</v>
@@ -1013,7 +1013,7 @@
         <v>-74240.69596877202</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>56.28</v>
@@ -1054,7 +1054,7 @@
         <v>-74240.69596877202</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>56.35</v>
@@ -1095,7 +1095,7 @@
         <v>-76340.03516877202</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>56.35</v>
@@ -1136,7 +1136,7 @@
         <v>-74240.27206877203</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>56.34</v>
@@ -1177,7 +1177,7 @@
         <v>-74240.27206877203</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>56.36</v>
@@ -1218,7 +1218,7 @@
         <v>-77108.69316877204</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>56.36</v>
@@ -1259,7 +1259,7 @@
         <v>-76408.91346877204</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>56.35</v>
@@ -1300,7 +1300,7 @@
         <v>-76408.91346877204</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>56.36</v>
@@ -1341,7 +1341,7 @@
         <v>-79952.43646877204</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>56.36</v>
@@ -1382,7 +1382,7 @@
         <v>-77095.07596877204</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>56.34</v>
@@ -1423,7 +1423,7 @@
         <v>-74295.95706877204</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>56.35</v>
@@ -1464,7 +1464,7 @@
         <v>-74295.95706877204</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>56.36</v>
@@ -1505,7 +1505,7 @@
         <v>-77094.50726877204</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>56.36</v>
@@ -1546,7 +1546,7 @@
         <v>-75694.94776877204</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>56.34</v>
@@ -1587,7 +1587,7 @@
         <v>-81527.29516877203</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>56.36</v>
@@ -1628,7 +1628,7 @@
         <v>-89296.66036877203</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>56.24</v>
@@ -1669,7 +1669,7 @@
         <v>-85748.95306877204</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>56.19</v>
@@ -1710,7 +1710,7 @@
         <v>-87148.51246877204</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>56.2</v>
@@ -1751,7 +1751,7 @@
         <v>-81533.40436877204</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>56.18</v>
@@ -1792,7 +1792,7 @@
         <v>-84332.52326877204</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>56.2</v>
@@ -1833,7 +1833,7 @@
         <v>-82233.18406877204</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>56.18</v>
@@ -1874,7 +1874,7 @@
         <v>-85738.80326877204</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>56.21</v>
@@ -1915,7 +1915,7 @@
         <v>-88604.38386877204</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>56.2</v>
@@ -1956,7 +1956,7 @@
         <v>-87904.60416877204</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>56.19</v>
@@ -1997,7 +1997,7 @@
         <v>-82918.37266877205</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>56.2</v>
@@ -2038,7 +2038,7 @@
         <v>-77102.27746877205</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>56.21</v>
@@ -2079,7 +2079,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>56.4</v>
@@ -2120,7 +2120,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>56.45</v>
@@ -2161,7 +2161,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>56.45</v>
@@ -2202,7 +2202,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>56.45</v>
@@ -2243,7 +2243,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>56.45</v>
@@ -2284,7 +2284,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>56.45</v>
@@ -2325,7 +2325,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>56.45</v>
@@ -2366,7 +2366,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>56.45</v>
@@ -2407,7 +2407,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>56.45</v>
@@ -2448,7 +2448,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>56.45</v>
@@ -2489,7 +2489,7 @@
         <v>-76402.49776877205</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>56.45</v>
@@ -2530,7 +2530,7 @@
         <v>-74303.15856877205</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>56.45</v>
@@ -2571,7 +2571,7 @@
         <v>-61949.55715284206</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>56.48</v>
@@ -2612,7 +2612,7 @@
         <v>-56291.91815284205</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>56.5</v>
@@ -2653,7 +2653,7 @@
         <v>-42183.46005284206</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>56.55</v>
@@ -2694,7 +2694,7 @@
         <v>-28476.65775284206</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>56.59</v>
@@ -2735,7 +2735,7 @@
         <v>-16206.46364663106</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>56.65</v>
@@ -2776,7 +2776,7 @@
         <v>-18328.09154663106</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>56.99</v>
@@ -2817,7 +2817,7 @@
         <v>-10744.02336566306</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>56.8</v>
@@ -2858,7 +2858,7 @@
         <v>-10044.24366566306</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>56.81</v>
@@ -2899,7 +2899,7 @@
         <v>-3852.15883443406</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>56.83</v>
@@ -2940,7 +2940,7 @@
         <v>-8142.30913443406</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>57.03</v>
@@ -2981,7 +2981,7 @@
         <v>-3855.47873443406</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>56.8</v>
@@ -3022,7 +3022,7 @@
         <v>-5989.56143443406</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>56.83</v>
@@ -3063,7 +3063,7 @@
         <v>-4590.00193443406</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>56.81</v>
@@ -3104,7 +3104,7 @@
         <v>-4590.00193443406</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>56.82</v>
@@ -3145,7 +3145,7 @@
         <v>-8092.47283443406</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>56.82</v>
@@ -3186,7 +3186,7 @@
         <v>-7392.69313443406</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>56.79</v>
@@ -3227,7 +3227,7 @@
         <v>-8191.83383443406</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>56.8</v>
@@ -3268,7 +3268,7 @@
         <v>-6792.27443443406</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>56.6</v>
@@ -3309,7 +3309,7 @@
         <v>-50605.64573443406</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>56.79</v>
@@ -3350,7 +3350,7 @@
         <v>-48506.30653443406</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>56.45</v>
@@ -3391,7 +3391,7 @@
         <v>-48506.30653443406</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>56.7</v>
@@ -3432,7 +3432,7 @@
         <v>-48506.30653443406</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>56.7</v>
@@ -3473,7 +3473,7 @@
         <v>-49905.86603443406</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>56.7</v>
@@ -3514,7 +3514,7 @@
         <v>-57948.40413443406</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>56.69</v>
@@ -3555,7 +3555,7 @@
         <v>-59347.96363443406</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>56.66</v>
@@ -3596,7 +3596,7 @@
         <v>-55131.48793443406</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>56.64</v>
@@ -3637,7 +3637,7 @@
         <v>-55831.26763443406</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>56.66</v>
@@ -3678,7 +3678,7 @@
         <v>-60022.00163443405</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>56.64</v>
@@ -3719,7 +3719,7 @@
         <v>-56523.10293443406</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>56.63</v>
@@ -3760,7 +3760,7 @@
         <v>-55823.32323443406</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>56.65</v>
@@ -3801,7 +3801,7 @@
         <v>-59413.42243443405</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>56.67</v>
@@ -3842,7 +3842,7 @@
         <v>-58713.64273443406</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>56.63</v>
@@ -3883,7 +3883,7 @@
         <v>-62979.15843443405</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>56.67</v>
@@ -3924,7 +3924,7 @@
         <v>-62279.37873443405</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>56.63</v>
@@ -3965,7 +3965,7 @@
         <v>-62979.15843443405</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>56.64</v>
@@ -4006,7 +4006,7 @@
         <v>-62979.15843443405</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>56.63</v>
@@ -4047,7 +4047,7 @@
         <v>-59480.25973443405</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>56.63</v>
@@ -4088,7 +4088,7 @@
         <v>-59480.25973443405</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>56.64</v>
@@ -4129,7 +4129,7 @@
         <v>-57976.44283443406</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>56.64</v>
@@ -4170,7 +4170,7 @@
         <v>-59376.00233443406</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>56.69</v>
@@ -4211,7 +4211,7 @@
         <v>-60075.78203443406</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>56.68</v>
@@ -4252,7 +4252,7 @@
         <v>-57976.44283443406</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>56.65</v>
@@ -4293,7 +4293,7 @@
         <v>-60775.56173443406</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>56.68</v>
@@ -4334,7 +4334,7 @@
         <v>-53922.67333443406</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>56.64</v>
@@ -4375,7 +4375,7 @@
         <v>-56721.79223443406</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>56.66</v>
@@ -4416,7 +4416,7 @@
         <v>-56721.79223443406</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>56.65</v>
@@ -4457,7 +4457,7 @@
         <v>-54521.98993443406</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>56.65</v>
@@ -4498,7 +4498,7 @@
         <v>-56696.31473443406</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>56.66</v>
@@ -4539,7 +4539,7 @@
         <v>-52496.03633443406</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>56.65</v>
@@ -4580,7 +4580,7 @@
         <v>-52496.03633443406</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>56.68</v>
@@ -4621,7 +4621,7 @@
         <v>-53195.81603443406</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>56.68</v>
@@ -4662,7 +4662,7 @@
         <v>-48903.29383443406</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>56.65</v>
@@ -4703,7 +4703,7 @@
         <v>-54030.17993443405</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>56.67</v>
@@ -4744,7 +4744,7 @@
         <v>-52883.55953443405</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>56.41</v>
@@ -4785,7 +4785,7 @@
         <v>-58315.23063443405</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>56.93</v>
@@ -4826,7 +4826,7 @@
         <v>-59714.79013443406</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>56.68</v>
@@ -4867,7 +4867,7 @@
         <v>-54711.12563443406</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>56.65</v>
@@ -4908,7 +4908,7 @@
         <v>-59023.78403443406</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>56.69</v>
@@ -4949,7 +4949,7 @@
         <v>-59023.78403443406</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>56.68</v>
@@ -4990,7 +4990,7 @@
         <v>-61872.96193443406</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>56.68</v>
@@ -5031,7 +5031,7 @@
         <v>-61872.96193443406</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>56.66</v>
@@ -5072,7 +5072,7 @@
         <v>-56859.77093443406</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>56.66</v>
@@ -5113,7 +5113,7 @@
         <v>-50491.43883443406</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>56.67</v>
@@ -5154,7 +5154,7 @@
         <v>-52614.32873443406</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>56.68</v>
@@ -5195,7 +5195,7 @@
         <v>-49763.21363443406</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>56.65</v>
@@ -5236,7 +5236,7 @@
         <v>-52562.33263443406</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>56.68</v>
@@ -5277,7 +5277,7 @@
         <v>-49409.11839620906</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>56.67</v>
@@ -5318,7 +5318,7 @@
         <v>-48709.33869620906</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>56.7</v>
@@ -5359,7 +5359,7 @@
         <v>-48709.33869620906</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>56.75</v>
@@ -5400,7 +5400,7 @@
         <v>-50108.89809620906</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>56.75</v>
@@ -5441,7 +5441,7 @@
         <v>-47965.94339620906</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>56.71</v>
@@ -5482,7 +5482,7 @@
         <v>-59600.53459620906</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>56.73</v>
@@ -5523,7 +5523,7 @@
         <v>-56711.71239620906</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>56.41</v>
@@ -5564,7 +5564,7 @@
         <v>-57475.65269620906</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>56.47</v>
@@ -5605,7 +5605,7 @@
         <v>-56076.09329620906</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>56.46</v>
@@ -5646,7 +5646,7 @@
         <v>-56775.87299620906</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>56.47</v>
@@ -5687,7 +5687,7 @@
         <v>-52482.72419620906</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>56.46</v>
@@ -5728,7 +5728,7 @@
         <v>-54582.06339620906</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>56.47</v>
@@ -5769,7 +5769,7 @@
         <v>-53882.28369620906</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>56.46</v>
@@ -5810,7 +5810,7 @@
         <v>-56001.28109620906</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>56.47</v>
@@ -5851,7 +5851,7 @@
         <v>-56001.28109620906</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>56.46</v>
@@ -5892,7 +5892,7 @@
         <v>-56001.28109620906</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>56.46</v>
@@ -5933,7 +5933,7 @@
         <v>-54601.72159620906</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>56.46</v>
@@ -5974,7 +5974,7 @@
         <v>-54601.72159620906</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>56.47</v>
@@ -6015,7 +6015,7 @@
         <v>-63921.10899620906</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>56.47</v>
@@ -6056,7 +6056,7 @@
         <v>-59722.43059620906</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>56.45</v>
@@ -6097,7 +6097,7 @@
         <v>-62521.54949620906</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>56.48</v>
@@ -6138,7 +6138,7 @@
         <v>-62521.54949620906</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>56.46</v>
@@ -6179,7 +6179,7 @@
         <v>-59036.73209620906</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>56.46</v>
@@ -6220,7 +6220,7 @@
         <v>-61133.28389620906</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>56.48</v>
@@ -6261,7 +6261,7 @@
         <v>-61133.28389620906</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>56.46</v>
@@ -6302,7 +6302,7 @@
         <v>-62532.84329620906</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>56.46</v>
@@ -6343,7 +6343,7 @@
         <v>-58986.30549620906</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>56.45</v>
@@ -6384,7 +6384,7 @@
         <v>-58986.30549620906</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>56.48</v>
@@ -6425,7 +6425,7 @@
         <v>-61130.73649620906</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>56.48</v>
@@ -6466,7 +6466,7 @@
         <v>-63957.98559620906</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>56.47</v>
@@ -6507,7 +6507,7 @@
         <v>-63258.20589620906</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>56.46</v>
@@ -6548,7 +6548,7 @@
         <v>-66815.49879620905</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>56.48</v>
@@ -6589,7 +6589,7 @@
         <v>-66115.71909620905</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>56.45</v>
@@ -6630,7 +6630,7 @@
         <v>-66115.71909620905</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>56.47</v>
@@ -6671,7 +6671,7 @@
         <v>-66115.71909620905</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>56.47</v>
@@ -6712,7 +6712,7 @@
         <v>-68269.86839620906</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>56.47</v>
@@ -6753,7 +6753,7 @@
         <v>-61858.58809620906</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>56.46</v>
@@ -6794,7 +6794,7 @@
         <v>-66038.81179620906</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>56.47</v>
@@ -6835,7 +6835,7 @@
         <v>-62484.25519620907</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>56.34</v>
@@ -6876,7 +6876,7 @@
         <v>-69396.33459620907</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>56.47</v>
@@ -6917,7 +6917,7 @@
         <v>-68696.55489620907</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>56.45</v>
@@ -6958,7 +6958,7 @@
         <v>-68696.55489620907</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>56.47</v>
@@ -6999,7 +6999,7 @@
         <v>-73595.01299620907</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>56.47</v>
@@ -7040,7 +7040,7 @@
         <v>-71465.07389620907</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>56.46</v>
@@ -7081,7 +7081,7 @@
         <v>-78560.40709620906</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>56.47</v>
@@ -7122,7 +7122,7 @@
         <v>-72891.39549620906</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>56.4</v>
@@ -7163,7 +7163,7 @@
         <v>-74990.73469620907</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>56.41</v>
@@ -7204,7 +7204,7 @@
         <v>-74990.73469620907</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>56.4</v>
@@ -7245,7 +7245,7 @@
         <v>-74990.73469620907</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>56.4</v>
@@ -7286,7 +7286,7 @@
         <v>-74990.73469620907</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>56.4</v>
@@ -7327,7 +7327,7 @@
         <v>-74990.73469620907</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>56.4</v>
@@ -7368,7 +7368,7 @@
         <v>-74990.73469620907</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>56.4</v>
@@ -7409,7 +7409,7 @@
         <v>-74990.73469620907</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>56.4</v>
@@ -7450,7 +7450,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>56.4</v>
@@ -7491,7 +7491,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>56.37</v>
@@ -7532,7 +7532,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>56.37</v>
@@ -7573,7 +7573,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>56.37</v>
@@ -7614,7 +7614,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>56.37</v>
@@ -7655,7 +7655,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>56.37</v>
@@ -7696,7 +7696,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>56.37</v>
@@ -7737,7 +7737,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>56.37</v>
@@ -7778,7 +7778,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>56.37</v>
@@ -7819,7 +7819,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>56.37</v>
@@ -7860,7 +7860,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>56.37</v>
@@ -7901,7 +7901,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>56.37</v>
@@ -7942,7 +7942,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>56.37</v>
@@ -7983,7 +7983,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>56.37</v>
@@ -8024,7 +8024,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>56.37</v>
@@ -8065,7 +8065,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>56.37</v>
@@ -8106,7 +8106,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>56.37</v>
@@ -8147,7 +8147,7 @@
         <v>-77847.77489620907</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>56.37</v>
@@ -8188,7 +8188,7 @@
         <v>-63351.47729620907</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>56.37</v>
@@ -8229,7 +8229,7 @@
         <v>-66229.98709620908</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>56.58</v>
@@ -8270,7 +8270,7 @@
         <v>-64120.49779620908</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>56.46</v>
@@ -8311,7 +8311,7 @@
         <v>-59160.43309620908</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>56.47</v>
@@ -8352,7 +8352,7 @@
         <v>-61269.01749620908</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>56.48</v>
@@ -8393,7 +8393,7 @@
         <v>-64068.13639620908</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>56.47</v>
@@ -8434,7 +8434,7 @@
         <v>-64068.13639620908</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>56.46</v>
@@ -8475,7 +8475,7 @@
         <v>-64068.13639620908</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>56.46</v>
@@ -8516,7 +8516,7 @@
         <v>-57720.48969620908</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>56.46</v>
@@ -8557,7 +8557,7 @@
         <v>-46303.55529620908</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>56.47</v>
@@ -8598,7 +8598,7 @@
         <v>-44204.21609620908</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>56.59</v>
@@ -8639,7 +8639,7 @@
         <v>-46318.85519620908</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>56.7</v>
@@ -8680,7 +8680,7 @@
         <v>-43519.73629620908</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>56.69</v>
@@ -8721,7 +8721,7 @@
         <v>-47792.34489620908</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>56.7</v>
@@ -8762,7 +8762,7 @@
         <v>-45635.11699620908</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>56.67</v>
@@ -8803,7 +8803,7 @@
         <v>-31405.14659620908</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>56.69</v>
@@ -8844,7 +8844,7 @@
         <v>-32104.92629620908</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>56.99</v>
@@ -8885,7 +8885,7 @@
         <v>-31405.14659620908</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>56.94</v>
@@ -8926,7 +8926,7 @@
         <v>-34921.93429620908</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>56.97</v>
@@ -8967,7 +8967,7 @@
         <v>-37022.17979620908</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>56.96</v>
@@ -9008,7 +9008,7 @@
         <v>-33523.28109620908</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>56.95</v>
@@ -9049,7 +9049,7 @@
         <v>-33523.28109620908</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>56.96</v>
@@ -9090,7 +9090,7 @@
         <v>-39926.37539620908</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>56.96</v>
@@ -9131,7 +9131,7 @@
         <v>-39226.59569620908</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>56.94</v>
@@ -9172,7 +9172,7 @@
         <v>-43459.70069620908</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>56.97</v>
@@ -9213,7 +9213,7 @@
         <v>-43459.70069620908</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>56.95</v>
@@ -9254,7 +9254,7 @@
         <v>-43459.70069620908</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>56.95</v>
@@ -9295,7 +9295,7 @@
         <v>-43459.70069620908</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>56.95</v>
@@ -9336,7 +9336,7 @@
         <v>-39267.47009620908</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>56.95</v>
@@ -9377,7 +9377,7 @@
         <v>-37168.13099620908</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>56.96</v>
@@ -9418,7 +9418,7 @@
         <v>-39344.67729620908</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>56.97</v>
@@ -9459,7 +9459,7 @@
         <v>-40044.45699620908</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>56.96</v>
@@ -9500,7 +9500,7 @@
         <v>-35845.77869620908</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>56.94</v>
@@ -9541,7 +9541,7 @@
         <v>-38671.41329620908</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>56.95</v>
@@ -9582,7 +9582,7 @@
         <v>-36572.07409620908</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>56.94</v>
@@ -9623,7 +9623,7 @@
         <v>-31587.21169620908</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>56.95</v>
@@ -9664,7 +9664,7 @@
         <v>-29483.65059620908</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>56.96</v>
@@ -9705,7 +9705,7 @@
         <v>-33755.11059620908</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>56.97</v>
@@ -9746,7 +9746,7 @@
         <v>-33755.11059620908</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>56.94</v>
@@ -9787,7 +9787,7 @@
         <v>-28070.44429620908</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>56.94</v>
@@ -9828,7 +9828,7 @@
         <v>-30927.65979620908</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>56.97</v>
@@ -9869,7 +9869,7 @@
         <v>-28128.54079620908</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>56.95</v>
@@ -9910,7 +9910,7 @@
         <v>-30310.52969620908</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>56.97</v>
@@ -9951,7 +9951,7 @@
         <v>-17511.41079620908</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>56.94</v>
@@ -9992,7 +9992,7 @@
         <v>-18211.19049620908</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>57.15</v>
@@ -10033,7 +10033,7 @@
         <v>-15374.90039620908</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>56.97</v>
@@ -10074,7 +10074,7 @@
         <v>-15374.90039620908</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>56.98</v>
@@ -10115,7 +10115,7 @@
         <v>-19580.33209620908</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>56.98</v>
@@ -10156,7 +10156,7 @@
         <v>-16781.21309620908</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>56.97</v>
@@ -10197,7 +10197,7 @@
         <v>-16781.21309620908</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>56.99</v>
@@ -10238,7 +10238,7 @@
         <v>-17480.99279620908</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>56.99</v>
@@ -10279,7 +10279,7 @@
         <v>-15300.52949620908</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>56.97</v>
@@ -10320,7 +10320,7 @@
         <v>-18799.42819620908</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>57</v>
@@ -10361,7 +10361,7 @@
         <v>-16667.66569620908</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>56.97</v>
@@ -10402,7 +10402,7 @@
         <v>-28044.39209620908</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>56.98</v>
@@ -10443,7 +10443,7 @@
         <v>-32296.39579620908</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>56.91</v>
@@ -10484,7 +10484,7 @@
         <v>-33695.95519620908</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>56.9</v>
@@ -10525,7 +10525,7 @@
         <v>-32296.39569620908</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>56.88</v>
@@ -10566,7 +10566,7 @@
         <v>-35095.51469620908</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>56.91</v>
@@ -10607,7 +10607,7 @@
         <v>-32225.13919620908</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>56.9</v>
@@ -10648,7 +10648,7 @@
         <v>-34324.47839620908</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>56.91</v>
@@ -10689,7 +10689,7 @@
         <v>-33624.69869620908</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>56.89</v>
@@ -10730,7 +10730,7 @@
         <v>-33624.69869620908</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>56.9</v>
@@ -10771,7 +10771,7 @@
         <v>-35817.50699620908</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>56.9</v>
@@ -10812,7 +10812,7 @@
         <v>-49407.64169620908</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>56.89</v>
@@ -10853,7 +10853,7 @@
         <v>-47308.30249620908</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>56.65</v>
@@ -10894,7 +10894,7 @@
         <v>-48008.08219620908</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>56.89</v>
@@ -10935,7 +10935,7 @@
         <v>-50182.39049620907</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>56.88</v>
@@ -10976,7 +10976,7 @@
         <v>-48081.37319620908</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>56.87</v>
@@ -11017,7 +11017,7 @@
         <v>-48081.37319620908</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>56.89</v>
@@ -11058,7 +11058,7 @@
         <v>-45249.01839620907</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>56.89</v>
@@ -11099,7 +11099,7 @@
         <v>-47341.43519620907</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>56.9</v>
@@ -11140,7 +11140,7 @@
         <v>-45242.09599620907</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>56.85</v>
@@ -11181,7 +11181,7 @@
         <v>-45242.09599620907</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>56.87</v>
@@ -11222,7 +11222,7 @@
         <v>-40262.22279620907</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>56.87</v>
@@ -11263,7 +11263,7 @@
         <v>-40262.22279620907</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>56.88</v>
@@ -11304,7 +11304,7 @@
         <v>-40262.22279620907</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>56.88</v>
@@ -11345,7 +11345,7 @@
         <v>-38126.55129620907</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>56.88</v>
@@ -11386,7 +11386,7 @@
         <v>-40280.32599620907</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>56.89</v>
@@ -11427,7 +11427,7 @@
         <v>-42463.21519620907</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>56.88</v>
@@ -11468,7 +11468,7 @@
         <v>-39621.67309620907</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>56.86</v>
@@ -11509,7 +11509,7 @@
         <v>-39621.67309620907</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>57.05</v>
@@ -11550,7 +11550,7 @@
         <v>-39621.67309620907</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>57.05</v>
@@ -11591,7 +11591,7 @@
         <v>-39621.67309620907</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>57.05</v>
@@ -11632,7 +11632,7 @@
         <v>-41742.89429620907</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>57.05</v>
@@ -11673,7 +11673,7 @@
         <v>-41043.11459620907</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>56.99</v>
@@ -11714,7 +11714,7 @@
         <v>-46034.91259620908</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>57.01</v>
@@ -11755,7 +11755,7 @@
         <v>-46034.91259620908</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>57</v>
@@ -11796,7 +11796,7 @@
         <v>-50314.04279620908</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>57</v>
@@ -11837,7 +11837,7 @@
         <v>-50314.04279620908</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>56.99</v>
@@ -11878,7 +11878,7 @@
         <v>-51013.82249620908</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>56.99</v>
@@ -11919,7 +11919,7 @@
         <v>-55287.50509620908</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>56.9</v>
@@ -11960,7 +11960,7 @@
         <v>-53887.94569620908</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>56.88</v>
@@ -12001,7 +12001,7 @@
         <v>-51729.37609620907</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>56.99</v>
@@ -12042,7 +12042,7 @@
         <v>-53128.93559620908</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>57</v>
@@ -12083,7 +12083,7 @@
         <v>-53828.71529620908</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>56.88</v>
@@ -12124,7 +12124,7 @@
         <v>-51031.82929620908</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>56.85</v>
@@ -12165,7 +12165,7 @@
         <v>-42407.97899620908</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>56.87</v>
@@ -12206,7 +12206,7 @@
         <v>-43107.75869620908</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>56.89</v>
@@ -12247,7 +12247,7 @@
         <v>-51708.08159620908</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>56.88</v>
@@ -12288,7 +12288,7 @@
         <v>-51008.30189620908</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>56.85</v>
@@ -12329,7 +12329,7 @@
         <v>-55322.92109620908</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>56.87</v>
@@ -12370,7 +12370,7 @@
         <v>-51824.02239620908</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>56.86</v>
@@ -12411,7 +12411,7 @@
         <v>-54623.14129620908</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>56.89</v>
@@ -12452,7 +12452,7 @@
         <v>-54623.14129620908</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>56.88</v>
@@ -12493,7 +12493,7 @@
         <v>-54623.14129620908</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>56.88</v>
@@ -12534,7 +12534,7 @@
         <v>-54623.14129620908</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>56.88</v>
@@ -12575,7 +12575,7 @@
         <v>-43335.68409620908</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>56.88</v>
@@ -12616,7 +12616,7 @@
         <v>-44130.78559620908</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>57.02</v>
@@ -12657,7 +12657,7 @@
         <v>-42031.44639620907</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>57.01</v>
@@ -12698,7 +12698,7 @@
         <v>-46315.52139620907</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>57.02</v>
@@ -12739,7 +12739,7 @@
         <v>-46315.52139620907</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>57.01</v>
@@ -12780,7 +12780,7 @@
         <v>-43521.99759620907</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>57.01</v>
@@ -12821,7 +12821,7 @@
         <v>-43521.99759620907</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>57.09</v>
@@ -12862,7 +12862,7 @@
         <v>-44921.55709620907</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>57.09</v>
@@ -12903,7 +12903,7 @@
         <v>-44921.55709620907</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>57.03</v>
@@ -12944,7 +12944,7 @@
         <v>-44921.55709620907</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>57.03</v>
@@ -12985,7 +12985,7 @@
         <v>-47720.67599620907</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>57.03</v>
@@ -13026,7 +13026,7 @@
         <v>-47720.67599620907</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>57.02</v>
@@ -13067,7 +13067,7 @@
         <v>-47720.67599620907</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>57.02</v>
@@ -13108,7 +13108,7 @@
         <v>-49120.23549620908</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>57.02</v>
@@ -13149,7 +13149,7 @@
         <v>-44221.77739620907</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>57.01</v>
@@ -13190,7 +13190,7 @@
         <v>-44221.77739620907</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>57.02</v>
@@ -13231,7 +13231,7 @@
         <v>-46389.04829620908</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>57.02</v>
@@ -13272,7 +13272,7 @@
         <v>-46389.04829620908</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>57.01</v>
@@ -13313,7 +13313,7 @@
         <v>-47243.22699620907</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>57.01</v>
@@ -13354,7 +13354,7 @@
         <v>-44349.27459620907</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>56.89</v>
@@ -13395,7 +13395,7 @@
         <v>-45049.05429620907</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>57.03</v>
@@ -13436,7 +13436,7 @@
         <v>-50657.61199620907</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>57.02</v>
@@ -13477,7 +13477,7 @@
         <v>-50657.61199620907</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>57.01</v>
@@ -13518,7 +13518,7 @@
         <v>-49957.83229620907</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>57.01</v>
@@ -13559,7 +13559,7 @@
         <v>-55610.96469620907</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>57.03</v>
@@ -13600,7 +13600,7 @@
         <v>-55610.96469620907</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>57.02</v>
@@ -13641,7 +13641,7 @@
         <v>-55610.96469620907</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>57.02</v>
@@ -13682,7 +13682,7 @@
         <v>-55610.96469620907</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>57.02</v>
@@ -13723,7 +13723,7 @@
         <v>-53511.62549620907</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>57.02</v>
@@ -13764,7 +13764,7 @@
         <v>-53511.62549620907</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>57.03</v>
@@ -13805,7 +13805,7 @@
         <v>-54911.18489620907</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>57.03</v>
@@ -13846,7 +13846,7 @@
         <v>-54911.18489620907</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>57.02</v>
@@ -13887,7 +13887,7 @@
         <v>-54211.40519620907</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>57.02</v>
@@ -13928,7 +13928,7 @@
         <v>-58453.48799620906</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>57.03</v>
@@ -13969,7 +13969,7 @@
         <v>-58453.48799620906</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>57.01</v>
@@ -14010,7 +14010,7 @@
         <v>-56260.66089620906</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>57.01</v>
@@ -14051,7 +14051,7 @@
         <v>-52691.55529620906</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>57.02</v>
@@ -14092,7 +14092,7 @@
         <v>-54790.89449620906</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>57.03</v>
@@ -14133,7 +14133,7 @@
         <v>-52592.88279620906</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>57.02</v>
@@ -14174,7 +14174,7 @@
         <v>-52592.88279620906</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>57.03</v>
@@ -14215,7 +14215,7 @@
         <v>-52592.88279620906</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>57.03</v>
@@ -14256,7 +14256,7 @@
         <v>-56124.73469620906</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>57.03</v>
@@ -14297,7 +14297,7 @@
         <v>-56124.73469620906</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>57.02</v>
@@ -14338,7 +14338,7 @@
         <v>-56124.73469620906</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>57.02</v>
@@ -14379,7 +14379,7 @@
         <v>-56124.73469620906</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>57.02</v>
@@ -14420,7 +14420,7 @@
         <v>-56124.73469620906</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>57.02</v>
@@ -14461,7 +14461,7 @@
         <v>-53306.02409620906</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>57.02</v>
@@ -14502,7 +14502,7 @@
         <v>-49025.00829620906</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>57.03</v>
@@ -14543,7 +14543,7 @@
         <v>-49724.78799620906</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>57.04</v>
@@ -14584,7 +14584,7 @@
         <v>-51840.51199620906</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>57.03</v>
@@ -14625,7 +14625,7 @@
         <v>-51840.51199620906</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>57.02</v>
@@ -14666,7 +14666,7 @@
         <v>-47571.44429620906</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>57.02</v>
@@ -14707,7 +14707,7 @@
         <v>-46171.88479620906</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>57.03</v>
@@ -14748,7 +14748,7 @@
         <v>-46171.88479620906</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>57.09</v>
@@ -14789,7 +14789,7 @@
         <v>-42577.40989620906</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>57.09</v>
@@ -14830,7 +14830,7 @@
         <v>-42577.40989620906</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>57.1</v>
@@ -14871,7 +14871,7 @@
         <v>-45439.92979620906</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>57.1</v>
@@ -14912,7 +14912,7 @@
         <v>-53911.46039620906</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>57.09</v>
@@ -14953,7 +14953,7 @@
         <v>-20352.71869620906</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>57.04</v>
@@ -14994,7 +14994,7 @@
         <v>-20352.71869620906</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>57.62</v>
@@ -15035,7 +15035,7 @@
         <v>-18185.19719620906</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>57.62</v>
@@ -15076,7 +15076,7 @@
         <v>5980.444903790943</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>57.64</v>
@@ -15117,7 +15117,7 @@
         <v>29479.67790379094</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>57.99</v>
@@ -15158,7 +15158,7 @@
         <v>49945.20880379094</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>58.18</v>
@@ -15199,7 +15199,7 @@
         <v>62842.67110379094</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>58.58</v>
@@ -15240,7 +15240,7 @@
         <v>77944.15660379094</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>58.86</v>
@@ -15281,7 +15281,7 @@
         <v>92005.48040379093</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>58.87</v>
@@ -15322,7 +15322,7 @@
         <v>106174.7048037909</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>59.16</v>
@@ -15363,7 +15363,7 @@
         <v>286190.4731359209</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>59.28</v>
@@ -15404,7 +15404,7 @@
         <v>364917.5137359209</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>61</v>
@@ -15718,9 +15718,11 @@
         <v>452717.366589618</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>59.61</v>
+      </c>
       <c r="J375" t="n">
         <v>55.93</v>
       </c>
@@ -15757,9 +15759,11 @@
         <v>486151.937589618</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>59.49</v>
+      </c>
       <c r="J376" t="n">
         <v>55.93</v>
       </c>
@@ -15796,9 +15800,11 @@
         <v>520599.526489618</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>59.63</v>
+      </c>
       <c r="J377" t="n">
         <v>55.93</v>
       </c>
@@ -15835,9 +15841,11 @@
         <v>520599.526489618</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J378" t="n">
         <v>55.93</v>
       </c>
@@ -15874,9 +15882,11 @@
         <v>678349.603289618</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>60.11</v>
+      </c>
       <c r="J379" t="n">
         <v>55.93</v>
       </c>
@@ -15952,9 +15962,11 @@
         <v>654618.6177896181</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>60.15</v>
+      </c>
       <c r="J381" t="n">
         <v>55.93</v>
       </c>
@@ -16303,9 +16315,11 @@
         <v>546383.239489618</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>58.05</v>
+      </c>
       <c r="J390" t="n">
         <v>55.93</v>
       </c>
@@ -16342,9 +16356,11 @@
         <v>546383.239489618</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>58.39</v>
+      </c>
       <c r="J391" t="n">
         <v>55.93</v>
       </c>
@@ -16381,9 +16397,11 @@
         <v>534411.658889618</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>58.39</v>
+      </c>
       <c r="J392" t="n">
         <v>55.93</v>
       </c>
@@ -16420,9 +16438,11 @@
         <v>456852.739289618</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>58.23</v>
+      </c>
       <c r="J393" t="n">
         <v>55.93</v>
       </c>
@@ -16459,9 +16479,11 @@
         <v>378717.334189618</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>57.65</v>
+      </c>
       <c r="J394" t="n">
         <v>55.93</v>
       </c>
@@ -16498,9 +16520,11 @@
         <v>394324.011140541</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>57.24</v>
+      </c>
       <c r="J395" t="n">
         <v>55.93</v>
       </c>
@@ -16537,9 +16561,11 @@
         <v>397993.577989618</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>57.29</v>
+      </c>
       <c r="J396" t="n">
         <v>55.93</v>
       </c>
@@ -16576,9 +16602,11 @@
         <v>397993.577989618</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>57.41</v>
+      </c>
       <c r="J397" t="n">
         <v>55.93</v>
       </c>
@@ -16615,9 +16643,11 @@
         <v>397993.577989618</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>57.41</v>
+      </c>
       <c r="J398" t="n">
         <v>55.93</v>
       </c>
@@ -16654,9 +16684,11 @@
         <v>421755.394289618</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>57.41</v>
+      </c>
       <c r="J399" t="n">
         <v>55.93</v>
       </c>
@@ -16693,9 +16725,11 @@
         <v>452952.719789618</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>57.68</v>
+      </c>
       <c r="J400" t="n">
         <v>55.93</v>
       </c>
@@ -16732,9 +16766,11 @@
         <v>448656.581289618</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>58.44</v>
+      </c>
       <c r="J401" t="n">
         <v>55.93</v>
       </c>
@@ -16771,9 +16807,11 @@
         <v>442636.804289618</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>58.28</v>
+      </c>
       <c r="J402" t="n">
         <v>55.93</v>
       </c>
@@ -16810,9 +16848,11 @@
         <v>447849.032689618</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>58.27</v>
+      </c>
       <c r="J403" t="n">
         <v>55.93</v>
       </c>
@@ -16849,9 +16889,11 @@
         <v>458723.841989618</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>58.44</v>
+      </c>
       <c r="J404" t="n">
         <v>55.93</v>
       </c>
@@ -16888,9 +16930,11 @@
         <v>456595.004389618</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>58.47</v>
+      </c>
       <c r="J405" t="n">
         <v>55.93</v>
       </c>
@@ -17005,9 +17049,11 @@
         <v>427452.4970896181</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>58.16</v>
+      </c>
       <c r="J408" t="n">
         <v>55.93</v>
       </c>
@@ -17122,9 +17168,11 @@
         <v>415542.961089618</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>58.07</v>
+      </c>
       <c r="J411" t="n">
         <v>55.93</v>
       </c>
@@ -17161,9 +17209,11 @@
         <v>394381.890589618</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>57.81</v>
+      </c>
       <c r="J412" t="n">
         <v>55.93</v>
       </c>
@@ -17200,9 +17250,11 @@
         <v>396481.229789618</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>57.79</v>
+      </c>
       <c r="J413" t="n">
         <v>55.93</v>
       </c>
@@ -17239,9 +17291,11 @@
         <v>396481.229789618</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>57.8</v>
+      </c>
       <c r="J414" t="n">
         <v>55.93</v>
       </c>
@@ -17278,9 +17332,11 @@
         <v>396481.229789618</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>57.8</v>
+      </c>
       <c r="J415" t="n">
         <v>55.93</v>
       </c>
@@ -17317,9 +17373,11 @@
         <v>403883.357989618</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>57.8</v>
+      </c>
       <c r="J416" t="n">
         <v>55.93</v>
       </c>
@@ -17356,9 +17414,11 @@
         <v>409695.996989618</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>57.81</v>
+      </c>
       <c r="J417" t="n">
         <v>55.93</v>
       </c>
@@ -17395,9 +17455,11 @@
         <v>411095.556489618</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>58.3</v>
+      </c>
       <c r="J418" t="n">
         <v>55.93</v>
       </c>
@@ -17473,9 +17535,11 @@
         <v>408207.4181896179</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>58.04</v>
+      </c>
       <c r="J420" t="n">
         <v>55.93</v>
       </c>
@@ -17512,9 +17576,11 @@
         <v>408207.4181896179</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>58.06</v>
+      </c>
       <c r="J421" t="n">
         <v>55.93</v>
       </c>
@@ -17551,9 +17617,11 @@
         <v>404692.2956896179</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>58.06</v>
+      </c>
       <c r="J422" t="n">
         <v>55.93</v>
       </c>
@@ -17590,9 +17658,11 @@
         <v>408871.9234896179</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>58.04</v>
+      </c>
       <c r="J423" t="n">
         <v>55.93</v>
       </c>
@@ -17629,9 +17699,11 @@
         <v>414546.0324896179</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>58.05</v>
+      </c>
       <c r="J424" t="n">
         <v>55.93</v>
       </c>
@@ -17668,9 +17740,11 @@
         <v>413846.2527896179</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>58.2</v>
+      </c>
       <c r="J425" t="n">
         <v>55.93</v>
       </c>
@@ -17707,9 +17781,11 @@
         <v>415954.8278896179</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>58.06</v>
+      </c>
       <c r="J426" t="n">
         <v>55.93</v>
       </c>
@@ -17746,9 +17822,11 @@
         <v>415954.8278896179</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>58.07</v>
+      </c>
       <c r="J427" t="n">
         <v>55.93</v>
       </c>
@@ -17785,9 +17863,11 @@
         <v>397293.673889618</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>58.07</v>
+      </c>
       <c r="J428" t="n">
         <v>55.93</v>
       </c>
@@ -17824,9 +17904,11 @@
         <v>390952.018689618</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>58.04</v>
+      </c>
       <c r="J429" t="n">
         <v>55.93</v>
       </c>
@@ -17863,9 +17945,11 @@
         <v>393051.357889618</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>58.02</v>
+      </c>
       <c r="J430" t="n">
         <v>55.93</v>
       </c>
@@ -17902,9 +17986,11 @@
         <v>391651.798389618</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>58.05</v>
+      </c>
       <c r="J431" t="n">
         <v>55.93</v>
       </c>
@@ -17941,9 +18027,11 @@
         <v>338502.155889618</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>58.02</v>
+      </c>
       <c r="J432" t="n">
         <v>55.93</v>
       </c>
@@ -17980,9 +18068,11 @@
         <v>382115.554489618</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>57.8</v>
+      </c>
       <c r="J433" t="n">
         <v>55.93</v>
       </c>
@@ -18019,9 +18109,11 @@
         <v>489053.504389618</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>58.73</v>
+      </c>
       <c r="J434" t="n">
         <v>55.93</v>
       </c>
@@ -20593,7 +20685,7 @@
         <v>3816032.157682352</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
@@ -20749,7 +20841,7 @@
         <v>4176010.09610845</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
@@ -20983,7 +21075,7 @@
         <v>4029495.073697976</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
@@ -21022,7 +21114,7 @@
         <v>4134835.200606626</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
@@ -21061,7 +21153,7 @@
         <v>4075241.471006625</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
@@ -21100,7 +21192,7 @@
         <v>4013450.627806625</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
@@ -21108,13 +21200,15 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L513" t="n">
-        <v>1</v>
-      </c>
-      <c r="M513" t="inlineStr"/>
+        <v>1.324340246736993</v>
+      </c>
+      <c r="M513" t="n">
+        <v>1.004827462900054</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -21139,17 +21233,11 @@
         <v>3919204.450806625</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -21178,17 +21266,11 @@
         <v>3917955.661206625</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -21217,17 +21299,11 @@
         <v>3916687.772806625</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -21256,17 +21332,11 @@
         <v>3845333.239006625</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -21295,17 +21365,11 @@
         <v>3717868.117206626</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -21334,17 +21398,11 @@
         <v>3776209.085706626</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -21373,17 +21431,11 @@
         <v>3702140.058706625</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -21412,17 +21464,11 @@
         <v>3833120.412206626</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -21451,17 +21497,11 @@
         <v>3867203.350006626</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -21490,17 +21530,11 @@
         <v>3920478.327206626</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -21529,17 +21563,11 @@
         <v>3914296.559306626</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -21568,17 +21596,11 @@
         <v>3917031.645406626</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21607,17 +21629,11 @@
         <v>3794421.679206626</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21646,17 +21662,11 @@
         <v>3710764.442428849</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21685,17 +21695,11 @@
         <v>3600436.987528849</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21724,17 +21728,11 @@
         <v>3635791.513028849</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21763,17 +21761,11 @@
         <v>3642875.448828849</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21802,17 +21794,11 @@
         <v>3650206.520428849</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21841,17 +21827,11 @@
         <v>3647377.170628849</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21880,17 +21860,11 @@
         <v>3640930.807628849</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21919,17 +21893,11 @@
         <v>3626455.477828849</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21958,17 +21926,11 @@
         <v>3648990.716928849</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21997,17 +21959,11 @@
         <v>3718255.329028849</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -22036,17 +21992,11 @@
         <v>3822858.665733183</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -22075,17 +22025,11 @@
         <v>3859935.473825884</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -22114,17 +22058,11 @@
         <v>3827028.014325884</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -22153,17 +22091,11 @@
         <v>3840612.786333183</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -22192,17 +22124,11 @@
         <v>3840612.786333183</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -22231,17 +22157,11 @@
         <v>3921180.399633183</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -22270,17 +22190,11 @@
         <v>3907710.799033183</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -22309,17 +22223,11 @@
         <v>3907710.799033183</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -22348,17 +22256,11 @@
         <v>3882162.815933183</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -22387,17 +22289,11 @@
         <v>3802554.952933183</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -22426,17 +22322,11 @@
         <v>3767393.171733183</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -22465,17 +22355,11 @@
         <v>3591467.451833183</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -22504,17 +22388,11 @@
         <v>3541864.115233183</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -22543,17 +22421,11 @@
         <v>3589107.955433183</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -22582,17 +22454,11 @@
         <v>3636091.421933183</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -22621,17 +22487,11 @@
         <v>3551705.139357317</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -22660,17 +22520,11 @@
         <v>3545785.783957317</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22699,17 +22553,11 @@
         <v>3549921.700591631</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22738,17 +22586,11 @@
         <v>3544912.311591631</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22777,17 +22619,11 @@
         <v>3533688.586191631</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22816,17 +22652,11 @@
         <v>3529366.027191631</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22855,17 +22685,11 @@
         <v>3434500.451391631</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22894,17 +22718,11 @@
         <v>3378932.134991631</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22933,17 +22751,11 @@
         <v>3259771.180870819</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22972,17 +22784,11 @@
         <v>3259771.180870819</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -23011,17 +22817,11 @@
         <v>3229523.719970819</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -23050,17 +22850,11 @@
         <v>3169189.330270819</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -23089,17 +22883,11 @@
         <v>3195342.763770819</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -23128,17 +22916,11 @@
         <v>3190053.968879068</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -23167,17 +22949,11 @@
         <v>3209233.270879068</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -23206,17 +22982,11 @@
         <v>3171063.673779068</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -23245,17 +23015,11 @@
         <v>3415238.333179068</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -23284,17 +23048,11 @@
         <v>3310656.239279068</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -23323,17 +23081,11 @@
         <v>3280072.551079067</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -23362,17 +23114,11 @@
         <v>3218524.644579067</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -23401,17 +23147,11 @@
         <v>3205830.500904733</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -23440,17 +23180,11 @@
         <v>3205830.500904733</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -23479,17 +23213,11 @@
         <v>3179397.253220007</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23518,17 +23246,11 @@
         <v>3179397.253220007</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23560,14 +23282,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23599,14 +23315,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23638,14 +23348,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23677,14 +23381,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23713,17 +23411,11 @@
         <v>3202771.696303947</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23752,17 +23444,11 @@
         <v>3165898.371119221</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23791,17 +23477,11 @@
         <v>3120801.302519221</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23833,14 +23513,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23872,14 +23546,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23911,14 +23579,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23950,14 +23612,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23989,14 +23645,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -24028,14 +23678,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -24067,14 +23711,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -24106,14 +23744,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -24145,14 +23777,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -24184,14 +23810,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -24223,14 +23843,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -24262,14 +23876,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -24301,14 +23909,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -24340,14 +23942,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -24379,14 +23975,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -24418,14 +24008,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -24457,14 +24041,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -24496,14 +24074,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -24535,14 +24107,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -24574,14 +24140,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -24613,14 +24173,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24652,14 +24206,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24691,14 +24239,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24730,14 +24272,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24769,14 +24305,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24808,14 +24338,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24847,14 +24371,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24886,14 +24404,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24925,14 +24437,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24964,14 +24470,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -25003,14 +24503,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -25042,14 +24536,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -25081,14 +24569,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -25120,14 +24602,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -25159,14 +24635,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -25198,14 +24668,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -25237,14 +24701,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -25276,14 +24734,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -25315,14 +24767,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -25354,14 +24800,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -25393,14 +24833,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -25432,14 +24866,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -25471,14 +24899,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -25510,14 +24932,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -25549,14 +24965,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -25588,14 +24998,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -25627,14 +25031,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -25666,14 +25064,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -25705,14 +25097,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -25744,14 +25130,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -25783,14 +25163,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -25822,14 +25196,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -25861,14 +25229,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -25900,14 +25262,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25939,14 +25295,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -25978,14 +25328,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -26017,14 +25361,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -26056,14 +25394,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -26095,14 +25427,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -26134,14 +25460,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -26173,14 +25493,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -26212,14 +25526,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -26251,14 +25559,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -26290,14 +25592,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -26329,14 +25625,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -26368,14 +25658,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -26407,14 +25691,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -26446,14 +25724,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -26485,14 +25757,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -26524,14 +25790,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -26563,14 +25823,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -26602,14 +25856,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -26641,14 +25889,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -26680,14 +25922,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -26719,14 +25955,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26758,14 +25988,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26797,14 +26021,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26836,14 +26054,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -26875,14 +26087,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -26914,14 +26120,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -26953,14 +26153,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -26992,14 +26186,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -27031,14 +26219,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -27070,14 +26252,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -27109,14 +26285,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -27148,14 +26318,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -27187,14 +26351,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -27226,14 +26384,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -27265,14 +26417,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -27304,14 +26450,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -27343,14 +26483,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -27382,14 +26516,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -27421,14 +26549,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -27460,14 +26582,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -27499,14 +26615,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -27538,14 +26648,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -27574,23 +26678,15 @@
         <v>3640761.259903762</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
-        <v>1.270165385303057</v>
-      </c>
-      <c r="M679" t="n">
-        <v>1.004827462900054</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -28077,7 +27173,7 @@
         <v>3570526.941303763</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -29463,7 +28559,7 @@
         <v>3728391.171737027</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -29496,7 +28592,7 @@
         <v>3858952.296137027</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -29529,7 +28625,7 @@
         <v>3755274.361012272</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -29562,7 +28658,7 @@
         <v>3670939.147712272</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -29595,7 +28691,7 @@
         <v>3595654.580444276</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -29628,7 +28724,7 @@
         <v>3575999.125358312</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -29661,7 +28757,7 @@
         <v>3636749.768172348</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -29694,7 +28790,7 @@
         <v>3636749.768172348</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -29859,7 +28955,7 @@
         <v>3596391.870472348</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -29892,7 +28988,7 @@
         <v>3660997.197759685</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -29925,7 +29021,7 @@
         <v>3773546.477972348</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -29958,7 +29054,7 @@
         <v>3923299.990972348</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -29991,7 +29087,7 @@
         <v>3990020.831372348</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -30024,7 +29120,7 @@
         <v>3891700.526172348</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -30057,7 +29153,7 @@
         <v>3891700.526172348</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -30090,7 +29186,7 @@
         <v>3903981.359672348</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -30123,7 +29219,7 @@
         <v>3944006.325772348</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -30156,7 +29252,7 @@
         <v>3939751.642472348</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -30189,7 +29285,7 @@
         <v>3869579.028172348</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -30222,7 +29318,7 @@
         <v>3906201.385799635</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -30255,7 +29351,7 @@
         <v>3811845.388999635</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -30288,7 +29384,7 @@
         <v>3811845.388999635</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -30321,7 +29417,7 @@
         <v>3779341.066799635</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -30354,7 +29450,7 @@
         <v>3714857.008099635</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -30387,7 +29483,7 @@
         <v>3571518.977799635</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -30420,7 +29516,7 @@
         <v>3616879.383499635</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -30453,7 +29549,7 @@
         <v>3678638.902399635</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -30486,7 +29582,7 @@
         <v>3642289.420738636</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -30519,7 +29615,7 @@
         <v>3673634.198077637</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -30552,7 +29648,7 @@
         <v>3673634.198077637</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -30585,7 +29681,7 @@
         <v>3684035.513077637</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -30618,7 +29714,7 @@
         <v>3686915.920677637</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -30651,7 +29747,7 @@
         <v>3700644.298477637</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -30684,7 +29780,7 @@
         <v>3715003.140277637</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -30717,7 +29813,7 @@
         <v>3706878.507977637</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -30750,7 +29846,7 @@
         <v>3709078.287677637</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -30783,7 +29879,7 @@
         <v>3709078.287677637</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -30816,7 +29912,7 @@
         <v>3706978.948577637</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -30849,7 +29945,7 @@
         <v>3668069.232932955</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -30882,7 +29978,7 @@
         <v>3648744.356332955</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -30915,7 +30011,7 @@
         <v>3640961.936032955</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -30948,7 +30044,7 @@
         <v>3655593.462532955</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -30981,7 +30077,7 @@
         <v>3642484.337632955</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -31014,7 +30110,7 @@
         <v>3614596.723032955</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -31047,7 +30143,7 @@
         <v>3536028.302332955</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -31080,7 +30176,7 @@
         <v>3519513.271832955</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -31113,7 +30209,7 @@
         <v>3507112.927332955</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -31146,7 +30242,7 @@
         <v>3476783.848932955</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -31179,7 +30275,7 @@
         <v>3452192.588232955</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -31212,7 +30308,7 @@
         <v>3464503.230732955</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -31245,7 +30341,7 @@
         <v>3432636.508932955</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -31278,7 +30374,7 @@
         <v>3443359.204232955</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -31311,7 +30407,7 @@
         <v>3425440.174632955</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -31344,7 +30440,7 @@
         <v>3425440.174632955</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -31377,7 +30473,7 @@
         <v>3425440.174632955</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -31410,7 +30506,7 @@
         <v>3430368.814832955</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -31443,7 +30539,7 @@
         <v>3424134.598932954</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -31476,7 +30572,7 @@
         <v>3424134.598932954</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -31509,7 +30605,7 @@
         <v>3418027.365732954</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -31542,7 +30638,7 @@
         <v>3457975.979132954</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -31575,7 +30671,7 @@
         <v>3445031.623032955</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -31608,7 +30704,7 @@
         <v>3450746.023532955</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -31641,7 +30737,7 @@
         <v>3450746.023532955</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -33456,7 +32552,7 @@
         <v>3622480.210649453</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -33522,7 +32618,7 @@
         <v>3643040.813349453</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -33555,7 +32651,7 @@
         <v>3643040.813349453</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -33588,7 +32684,7 @@
         <v>3649051.611449453</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -33621,7 +32717,7 @@
         <v>3663280.378107569</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -33654,7 +32750,7 @@
         <v>3762495.654907569</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -33687,7 +32783,7 @@
         <v>3739079.088996414</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -33720,7 +32816,7 @@
         <v>3723771.956296414</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -33753,7 +32849,7 @@
         <v>3718753.408296414</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -33786,7 +32882,7 @@
         <v>3724868.765896414</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -33819,7 +32915,7 @@
         <v>3713894.350496414</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -33852,7 +32948,7 @@
         <v>3762492.775857532</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -33885,7 +32981,7 @@
         <v>3885109.234597923</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -33918,7 +33014,7 @@
         <v>4073215.140331074</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -33951,7 +33047,7 @@
         <v>4037728.881131073</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -33984,7 +33080,7 @@
         <v>4215752.662161511</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -34017,7 +33113,7 @@
         <v>4120806.924378111</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -34050,7 +33146,7 @@
         <v>3969210.555807245</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -34083,7 +33179,7 @@
         <v>3998162.783407245</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -34116,7 +33212,7 @@
         <v>3924820.741307245</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -34149,7 +33245,7 @@
         <v>4013084.227565469</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -34182,7 +33278,7 @@
         <v>4005707.994465469</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -34215,7 +33311,7 @@
         <v>4019756.976365469</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -34248,7 +33344,7 @@
         <v>3924593.701965469</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -34281,7 +33377,7 @@
         <v>3909791.386965469</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -34314,7 +33410,7 @@
         <v>3891197.240965469</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -34347,7 +33443,7 @@
         <v>3874071.094465469</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -34380,7 +33476,7 @@
         <v>3875524.13356547</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -34413,7 +33509,7 @@
         <v>3863734.740565469</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -34446,7 +33542,7 @@
         <v>3843294.94246547</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -34479,7 +33575,7 @@
         <v>3849932.76106547</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -34512,7 +33608,7 @@
         <v>3835548.28376547</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -34545,7 +33641,7 @@
         <v>3803595.514965469</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -34578,7 +33674,7 @@
         <v>3707438.003465469</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -34611,7 +33707,7 @@
         <v>3719673.70646547</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -34644,7 +33740,7 @@
         <v>3722600.22106547</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -34677,7 +33773,7 @@
         <v>3724112.142165469</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -34710,7 +33806,7 @@
         <v>3696866.54946547</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -34743,7 +33839,7 @@
         <v>3704039.962365469</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -34776,7 +33872,7 @@
         <v>3729522.655065469</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -34809,7 +33905,7 @@
         <v>3743650.336665469</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -34842,7 +33938,7 @@
         <v>3759877.632865469</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -34875,7 +33971,7 @@
         <v>3770971.97486547</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -34908,7 +34004,7 @@
         <v>3802732.05166547</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -34941,7 +34037,7 @@
         <v>3742094.37146547</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -34974,7 +34070,7 @@
         <v>3742094.37146547</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -35007,7 +34103,7 @@
         <v>3705408.176167157</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -35040,7 +34136,7 @@
         <v>3668558.812267157</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -35205,7 +34301,7 @@
         <v>3606202.800467158</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -35238,7 +34334,7 @@
         <v>3606202.800467158</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -35271,7 +34367,7 @@
         <v>3626639.983067158</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -35304,7 +34400,7 @@
         <v>3579119.037067158</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -35337,7 +34433,7 @@
         <v>3523881.836167158</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -35370,7 +34466,7 @@
         <v>3479999.129667158</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -35403,7 +34499,7 @@
         <v>3492862.086567158</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -35436,7 +34532,7 @@
         <v>3475809.187467158</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -35469,7 +34565,7 @@
         <v>3473698.364867158</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -35502,7 +34598,7 @@
         <v>3475813.663967158</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -35535,7 +34631,7 @@
         <v>3428806.993067158</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -35568,7 +34664,7 @@
         <v>3428097.213367158</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -35601,7 +34697,7 @@
         <v>3416912.382967158</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -35634,7 +34730,7 @@
         <v>3347626.105967158</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -35667,7 +34763,7 @@
         <v>3352888.763567158</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -35700,7 +34796,7 @@
         <v>3269352.726867158</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -35733,7 +34829,7 @@
         <v>3264166.496367158</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -35766,7 +34862,7 @@
         <v>3261480.782967159</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -35799,7 +34895,7 @@
         <v>3261480.782967159</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -35832,7 +34928,7 @@
         <v>3222393.108430825</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -35865,7 +34961,7 @@
         <v>3240347.946294491</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -35898,7 +34994,7 @@
         <v>3279043.924694491</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -35931,7 +35027,7 @@
         <v>3283386.759094491</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -37416,7 +36512,7 @@
         <v>3547353.941792454</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -42366,7 +41462,7 @@
         <v>3213998.864535491</v>
       </c>
       <c r="H1127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -42399,7 +41495,7 @@
         <v>3213998.864535491</v>
       </c>
       <c r="H1128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -42432,7 +41528,7 @@
         <v>3210775.081235491</v>
       </c>
       <c r="H1129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -49901,6 +48997,6 @@
       <c r="M1355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest IPX.xlsx
+++ b/BackTest/2020-01-21 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -15158,11 +15158,9 @@
         <v>49945.20880379094</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>58.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
         <v>55.93</v>
       </c>
@@ -15199,11 +15197,9 @@
         <v>62842.67110379094</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>58.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
         <v>55.93</v>
       </c>
@@ -15240,11 +15236,9 @@
         <v>77944.15660379094</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>58.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
         <v>55.93</v>
       </c>
@@ -15281,11 +15275,9 @@
         <v>92005.48040379093</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>58.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
         <v>55.93</v>
       </c>
@@ -15322,11 +15314,9 @@
         <v>106174.7048037909</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>59.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>55.93</v>
       </c>
@@ -15363,11 +15353,9 @@
         <v>286190.4731359209</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>59.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
         <v>55.93</v>
       </c>
@@ -15404,11 +15392,9 @@
         <v>364917.5137359209</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
         <v>55.93</v>
       </c>
@@ -15718,11 +15704,9 @@
         <v>452717.366589618</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>59.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
         <v>55.93</v>
       </c>
@@ -15759,11 +15743,9 @@
         <v>486151.937589618</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>59.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
         <v>55.93</v>
       </c>
@@ -15800,11 +15782,9 @@
         <v>520599.526489618</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>59.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
         <v>55.93</v>
       </c>
@@ -15841,11 +15821,9 @@
         <v>520599.526489618</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>60.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
         <v>55.93</v>
       </c>
@@ -15882,11 +15860,9 @@
         <v>678349.603289618</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>60.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
         <v>55.93</v>
       </c>
@@ -15962,11 +15938,9 @@
         <v>654618.6177896181</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>60.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
         <v>55.93</v>
       </c>
@@ -16315,11 +16289,9 @@
         <v>546383.239489618</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>58.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
         <v>55.93</v>
       </c>
@@ -16356,11 +16328,9 @@
         <v>546383.239489618</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>58.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
         <v>55.93</v>
       </c>
@@ -16397,11 +16367,9 @@
         <v>534411.658889618</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>58.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
         <v>55.93</v>
       </c>
@@ -16438,11 +16406,9 @@
         <v>456852.739289618</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>58.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
         <v>55.93</v>
       </c>
@@ -16479,11 +16445,9 @@
         <v>378717.334189618</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>57.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
         <v>55.93</v>
       </c>
@@ -16520,11 +16484,9 @@
         <v>394324.011140541</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>57.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
         <v>55.93</v>
       </c>
@@ -16561,11 +16523,9 @@
         <v>397993.577989618</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>57.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
         <v>55.93</v>
       </c>
@@ -16602,11 +16562,9 @@
         <v>397993.577989618</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>57.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
         <v>55.93</v>
       </c>
@@ -16643,11 +16601,9 @@
         <v>397993.577989618</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>57.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
         <v>55.93</v>
       </c>
@@ -16684,11 +16640,9 @@
         <v>421755.394289618</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>57.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
         <v>55.93</v>
       </c>
@@ -16725,11 +16679,9 @@
         <v>452952.719789618</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>57.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
         <v>55.93</v>
       </c>
@@ -16766,11 +16718,9 @@
         <v>448656.581289618</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>58.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
         <v>55.93</v>
       </c>
@@ -16807,11 +16757,9 @@
         <v>442636.804289618</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>58.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
         <v>55.93</v>
       </c>
@@ -16848,11 +16796,9 @@
         <v>447849.032689618</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>58.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
         <v>55.93</v>
       </c>
@@ -16889,11 +16835,9 @@
         <v>458723.841989618</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>58.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
         <v>55.93</v>
       </c>
@@ -16930,11 +16874,9 @@
         <v>456595.004389618</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>58.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
         <v>55.93</v>
       </c>
@@ -17049,11 +16991,9 @@
         <v>427452.4970896181</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>58.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
         <v>55.93</v>
       </c>
@@ -17168,11 +17108,9 @@
         <v>415542.961089618</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>58.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
         <v>55.93</v>
       </c>
@@ -17209,11 +17147,9 @@
         <v>394381.890589618</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>57.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
         <v>55.93</v>
       </c>
@@ -17250,11 +17186,9 @@
         <v>396481.229789618</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>57.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
         <v>55.93</v>
       </c>
@@ -17291,11 +17225,9 @@
         <v>396481.229789618</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>57.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
         <v>55.93</v>
       </c>
@@ -17332,11 +17264,9 @@
         <v>396481.229789618</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>57.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
         <v>55.93</v>
       </c>
@@ -17373,11 +17303,9 @@
         <v>403883.357989618</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>57.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
         <v>55.93</v>
       </c>
@@ -17414,11 +17342,9 @@
         <v>409695.996989618</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>57.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
         <v>55.93</v>
       </c>
@@ -17455,11 +17381,9 @@
         <v>411095.556489618</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>58.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
         <v>55.93</v>
       </c>
@@ -17535,11 +17459,9 @@
         <v>408207.4181896179</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>58.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
         <v>55.93</v>
       </c>
@@ -17576,11 +17498,9 @@
         <v>408207.4181896179</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>58.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
         <v>55.93</v>
       </c>
@@ -17617,11 +17537,9 @@
         <v>404692.2956896179</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>58.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
         <v>55.93</v>
       </c>
@@ -17658,11 +17576,9 @@
         <v>408871.9234896179</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>58.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
         <v>55.93</v>
       </c>
@@ -17699,11 +17615,9 @@
         <v>414546.0324896179</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>58.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
         <v>55.93</v>
       </c>
@@ -17740,11 +17654,9 @@
         <v>413846.2527896179</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>58.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
         <v>55.93</v>
       </c>
@@ -17781,11 +17693,9 @@
         <v>415954.8278896179</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>58.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
         <v>55.93</v>
       </c>
@@ -17822,11 +17732,9 @@
         <v>415954.8278896179</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>58.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
         <v>55.93</v>
       </c>
@@ -17863,11 +17771,9 @@
         <v>397293.673889618</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>58.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
         <v>55.93</v>
       </c>
@@ -17904,11 +17810,9 @@
         <v>390952.018689618</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>58.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
         <v>55.93</v>
       </c>
@@ -17945,11 +17849,9 @@
         <v>393051.357889618</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>58.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
         <v>55.93</v>
       </c>
@@ -17986,11 +17888,9 @@
         <v>391651.798389618</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>58.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
         <v>55.93</v>
       </c>
@@ -18027,11 +17927,9 @@
         <v>338502.155889618</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>58.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
         <v>55.93</v>
       </c>
@@ -18068,11 +17966,9 @@
         <v>382115.554489618</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>57.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
         <v>55.93</v>
       </c>
@@ -18109,11 +18005,9 @@
         <v>489053.504389618</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>58.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
         <v>55.93</v>
       </c>
@@ -19749,7 +19643,7 @@
         <v>1419718.646658116</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
@@ -19757,13 +19651,15 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
+        <v>1.177370820668693</v>
+      </c>
+      <c r="M476" t="n">
+        <v>1.004827462900054</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -19788,17 +19684,11 @@
         <v>1668777.676359699</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19827,17 +19717,11 @@
         <v>1414089.391663775</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19866,17 +19750,11 @@
         <v>1604229.325863775</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19905,17 +19783,11 @@
         <v>2243787.261263775</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19944,17 +19816,11 @@
         <v>2453307.804563775</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19983,17 +19849,11 @@
         <v>2196134.208856113</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -20022,17 +19882,11 @@
         <v>2312202.987856113</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -20061,17 +19915,11 @@
         <v>2384687.702456113</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -20100,17 +19948,11 @@
         <v>2765064.400856113</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -20139,17 +19981,11 @@
         <v>3442529.815992824</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -20178,17 +20014,11 @@
         <v>3753655.828422548</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -20220,14 +20050,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -20259,14 +20083,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -20298,14 +20116,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -20337,14 +20149,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -20376,14 +20182,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -20415,14 +20215,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -20454,14 +20248,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -20493,14 +20281,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -20532,14 +20314,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -20571,14 +20347,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -20610,14 +20380,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -20649,14 +20413,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20688,14 +20446,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20727,14 +20479,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20766,14 +20512,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20805,14 +20545,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20844,14 +20578,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20883,14 +20611,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20922,14 +20644,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20961,14 +20677,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -21000,14 +20710,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -21039,14 +20743,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -21078,14 +20776,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -21117,14 +20809,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -21153,17 +20839,11 @@
         <v>4075241.471006625</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -21195,20 +20875,12 @@
         <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
-        <v>1.324340246736993</v>
-      </c>
-      <c r="M513" t="n">
-        <v>1.004827462900054</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -21233,7 +20905,7 @@
         <v>3919204.450806625</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -21464,7 +21136,7 @@
         <v>3833120.412206626</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -21497,7 +21169,7 @@
         <v>3867203.350006626</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -21530,7 +21202,7 @@
         <v>3920478.327206626</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -21563,7 +21235,7 @@
         <v>3914296.559306626</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -21596,7 +21268,7 @@
         <v>3917031.645406626</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -21629,7 +21301,7 @@
         <v>3794421.679206626</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -21662,7 +21334,7 @@
         <v>3710764.442428849</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -21695,7 +21367,7 @@
         <v>3600436.987528849</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -21728,7 +21400,7 @@
         <v>3635791.513028849</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -21761,7 +21433,7 @@
         <v>3642875.448828849</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -21794,7 +21466,7 @@
         <v>3650206.520428849</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -21827,7 +21499,7 @@
         <v>3647377.170628849</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -21860,7 +21532,7 @@
         <v>3640930.807628849</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -21893,7 +21565,7 @@
         <v>3626455.477828849</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -21926,7 +21598,7 @@
         <v>3648990.716928849</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -21959,7 +21631,7 @@
         <v>3718255.329028849</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -21992,7 +21664,7 @@
         <v>3822858.665733183</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -22025,7 +21697,7 @@
         <v>3859935.473825884</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -22058,7 +21730,7 @@
         <v>3827028.014325884</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -22091,7 +21763,7 @@
         <v>3840612.786333183</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -22124,7 +21796,7 @@
         <v>3840612.786333183</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -22157,7 +21829,7 @@
         <v>3921180.399633183</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -22190,7 +21862,7 @@
         <v>3907710.799033183</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -22223,7 +21895,7 @@
         <v>3907710.799033183</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -22256,7 +21928,7 @@
         <v>3882162.815933183</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -22289,7 +21961,7 @@
         <v>3802554.952933183</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -22322,7 +21994,7 @@
         <v>3767393.171733183</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -22355,7 +22027,7 @@
         <v>3591467.451833183</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -22388,7 +22060,7 @@
         <v>3541864.115233183</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -22421,7 +22093,7 @@
         <v>3589107.955433183</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -22454,7 +22126,7 @@
         <v>3636091.421933183</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -22487,7 +22159,7 @@
         <v>3551705.139357317</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -22520,7 +22192,7 @@
         <v>3545785.783957317</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -22553,7 +22225,7 @@
         <v>3549921.700591631</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -22586,7 +22258,7 @@
         <v>3544912.311591631</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -22619,7 +22291,7 @@
         <v>3533688.586191631</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -22652,7 +22324,7 @@
         <v>3529366.027191631</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -22685,7 +22357,7 @@
         <v>3434500.451391631</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -22718,7 +22390,7 @@
         <v>3378932.134991631</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -22751,7 +22423,7 @@
         <v>3259771.180870819</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -22784,7 +22456,7 @@
         <v>3259771.180870819</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -22817,7 +22489,7 @@
         <v>3229523.719970819</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -22850,7 +22522,7 @@
         <v>3169189.330270819</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -22883,7 +22555,7 @@
         <v>3195342.763770819</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -22916,7 +22588,7 @@
         <v>3190053.968879068</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -22949,7 +22621,7 @@
         <v>3209233.270879068</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -22982,7 +22654,7 @@
         <v>3171063.673779068</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -23015,7 +22687,7 @@
         <v>3415238.333179068</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -23048,7 +22720,7 @@
         <v>3310656.239279068</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -23081,7 +22753,7 @@
         <v>3280072.551079067</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -23114,7 +22786,7 @@
         <v>3218524.644579067</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -23147,7 +22819,7 @@
         <v>3205830.500904733</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -23180,7 +22852,7 @@
         <v>3205830.500904733</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -23213,7 +22885,7 @@
         <v>3179397.253220007</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -23246,7 +22918,7 @@
         <v>3179397.253220007</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -23411,7 +23083,7 @@
         <v>3202771.696303947</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -23444,7 +23116,7 @@
         <v>3165898.371119221</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -23477,7 +23149,7 @@
         <v>3120801.302519221</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -28724,7 +28396,7 @@
         <v>3575999.125358312</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -28790,7 +28462,7 @@
         <v>3636749.768172348</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -28955,7 +28627,7 @@
         <v>3596391.870472348</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -28988,7 +28660,7 @@
         <v>3660997.197759685</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -29021,7 +28693,7 @@
         <v>3773546.477972348</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -29054,7 +28726,7 @@
         <v>3923299.990972348</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -29087,7 +28759,7 @@
         <v>3990020.831372348</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -29120,7 +28792,7 @@
         <v>3891700.526172348</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -29153,7 +28825,7 @@
         <v>3891700.526172348</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -29186,7 +28858,7 @@
         <v>3903981.359672348</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -29219,7 +28891,7 @@
         <v>3944006.325772348</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -29252,7 +28924,7 @@
         <v>3939751.642472348</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -29285,7 +28957,7 @@
         <v>3869579.028172348</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -29318,7 +28990,7 @@
         <v>3906201.385799635</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -29351,7 +29023,7 @@
         <v>3811845.388999635</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29384,7 +29056,7 @@
         <v>3811845.388999635</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -29417,7 +29089,7 @@
         <v>3779341.066799635</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -29450,7 +29122,7 @@
         <v>3714857.008099635</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -29483,7 +29155,7 @@
         <v>3571518.977799635</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -29516,7 +29188,7 @@
         <v>3616879.383499635</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -29549,7 +29221,7 @@
         <v>3678638.902399635</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -29582,7 +29254,7 @@
         <v>3642289.420738636</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -29615,7 +29287,7 @@
         <v>3673634.198077637</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -29648,7 +29320,7 @@
         <v>3673634.198077637</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -29681,7 +29353,7 @@
         <v>3684035.513077637</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29714,7 +29386,7 @@
         <v>3686915.920677637</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -29747,7 +29419,7 @@
         <v>3700644.298477637</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -29780,7 +29452,7 @@
         <v>3715003.140277637</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -29813,7 +29485,7 @@
         <v>3706878.507977637</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -29846,7 +29518,7 @@
         <v>3709078.287677637</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -29879,7 +29551,7 @@
         <v>3709078.287677637</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -29912,7 +29584,7 @@
         <v>3706978.948577637</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -29945,7 +29617,7 @@
         <v>3668069.232932955</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -29978,7 +29650,7 @@
         <v>3648744.356332955</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -30011,7 +29683,7 @@
         <v>3640961.936032955</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -30044,7 +29716,7 @@
         <v>3655593.462532955</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -30077,7 +29749,7 @@
         <v>3642484.337632955</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -30110,7 +29782,7 @@
         <v>3614596.723032955</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -30143,7 +29815,7 @@
         <v>3536028.302332955</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -30176,7 +29848,7 @@
         <v>3519513.271832955</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -30209,7 +29881,7 @@
         <v>3507112.927332955</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -30242,7 +29914,7 @@
         <v>3476783.848932955</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -30275,7 +29947,7 @@
         <v>3452192.588232955</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -30308,7 +29980,7 @@
         <v>3464503.230732955</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -30341,7 +30013,7 @@
         <v>3432636.508932955</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -30374,7 +30046,7 @@
         <v>3443359.204232955</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -30407,7 +30079,7 @@
         <v>3425440.174632955</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -30440,7 +30112,7 @@
         <v>3425440.174632955</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -30473,7 +30145,7 @@
         <v>3425440.174632955</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -30506,7 +30178,7 @@
         <v>3430368.814832955</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -30539,7 +30211,7 @@
         <v>3424134.598932954</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -30572,7 +30244,7 @@
         <v>3424134.598932954</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -30605,7 +30277,7 @@
         <v>3418027.365732954</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -30638,7 +30310,7 @@
         <v>3457975.979132954</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30671,7 +30343,7 @@
         <v>3445031.623032955</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30704,7 +30376,7 @@
         <v>3450746.023532955</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30737,7 +30409,7 @@
         <v>3450746.023532955</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -33113,7 +32785,7 @@
         <v>4120806.924378111</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -33146,7 +32818,7 @@
         <v>3969210.555807245</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -33179,7 +32851,7 @@
         <v>3998162.783407245</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -33212,7 +32884,7 @@
         <v>3924820.741307245</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -33245,7 +32917,7 @@
         <v>4013084.227565469</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -33278,7 +32950,7 @@
         <v>4005707.994465469</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -33311,7 +32983,7 @@
         <v>4019756.976365469</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -33344,7 +33016,7 @@
         <v>3924593.701965469</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -33377,7 +33049,7 @@
         <v>3909791.386965469</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -33410,7 +33082,7 @@
         <v>3891197.240965469</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -33443,7 +33115,7 @@
         <v>3874071.094465469</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -33476,7 +33148,7 @@
         <v>3875524.13356547</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -33509,7 +33181,7 @@
         <v>3863734.740565469</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -33542,7 +33214,7 @@
         <v>3843294.94246547</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -33575,7 +33247,7 @@
         <v>3849932.76106547</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -33608,7 +33280,7 @@
         <v>3835548.28376547</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -33641,7 +33313,7 @@
         <v>3803595.514965469</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -33674,7 +33346,7 @@
         <v>3707438.003465469</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -33707,7 +33379,7 @@
         <v>3719673.70646547</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -33740,7 +33412,7 @@
         <v>3722600.22106547</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -33773,7 +33445,7 @@
         <v>3724112.142165469</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -33806,7 +33478,7 @@
         <v>3696866.54946547</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -33839,7 +33511,7 @@
         <v>3704039.962365469</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33872,7 +33544,7 @@
         <v>3729522.655065469</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -33905,7 +33577,7 @@
         <v>3743650.336665469</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -33938,7 +33610,7 @@
         <v>3759877.632865469</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -33971,7 +33643,7 @@
         <v>3770971.97486547</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -34004,7 +33676,7 @@
         <v>3802732.05166547</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -34037,7 +33709,7 @@
         <v>3742094.37146547</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -34070,7 +33742,7 @@
         <v>3742094.37146547</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -34103,7 +33775,7 @@
         <v>3705408.176167157</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -34136,7 +33808,7 @@
         <v>3668558.812267157</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -34301,7 +33973,7 @@
         <v>3606202.800467158</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -34334,7 +34006,7 @@
         <v>3606202.800467158</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -34367,7 +34039,7 @@
         <v>3626639.983067158</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -34400,7 +34072,7 @@
         <v>3579119.037067158</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -34433,7 +34105,7 @@
         <v>3523881.836167158</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -34466,7 +34138,7 @@
         <v>3479999.129667158</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -34499,7 +34171,7 @@
         <v>3492862.086567158</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -34532,7 +34204,7 @@
         <v>3475809.187467158</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -34565,7 +34237,7 @@
         <v>3473698.364867158</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -34598,7 +34270,7 @@
         <v>3475813.663967158</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -34631,7 +34303,7 @@
         <v>3428806.993067158</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34664,7 +34336,7 @@
         <v>3428097.213367158</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -34697,7 +34369,7 @@
         <v>3416912.382967158</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34730,7 +34402,7 @@
         <v>3347626.105967158</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -34763,7 +34435,7 @@
         <v>3352888.763567158</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -34796,7 +34468,7 @@
         <v>3269352.726867158</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -34829,7 +34501,7 @@
         <v>3264166.496367158</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34862,7 +34534,7 @@
         <v>3261480.782967159</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34895,7 +34567,7 @@
         <v>3261480.782967159</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34928,7 +34600,7 @@
         <v>3222393.108430825</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34961,7 +34633,7 @@
         <v>3240347.946294491</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -34994,7 +34666,7 @@
         <v>3279043.924694491</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -35027,7 +34699,7 @@
         <v>3283386.759094491</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -48997,6 +48669,6 @@
       <c r="M1355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest IPX.xlsx
+++ b/BackTest/2020-01-21 BackTest IPX.xlsx
@@ -15158,9 +15158,11 @@
         <v>49945.20880379094</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>58.18</v>
+      </c>
       <c r="J361" t="n">
         <v>55.93</v>
       </c>
@@ -15197,9 +15199,11 @@
         <v>62842.67110379094</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>58.58</v>
+      </c>
       <c r="J362" t="n">
         <v>55.93</v>
       </c>
@@ -19643,7 +19647,7 @@
         <v>1419718.646658116</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
@@ -19651,15 +19655,13 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L476" t="n">
-        <v>1.177370820668693</v>
-      </c>
-      <c r="M476" t="n">
-        <v>1.004827462900054</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -19684,11 +19686,17 @@
         <v>1668777.676359699</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19717,11 +19725,17 @@
         <v>1414089.391663775</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19750,11 +19764,17 @@
         <v>1604229.325863775</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19783,11 +19803,17 @@
         <v>2243787.261263775</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19816,11 +19842,17 @@
         <v>2453307.804563775</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19849,11 +19881,17 @@
         <v>2196134.208856113</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19882,11 +19920,17 @@
         <v>2312202.987856113</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19915,11 +19959,17 @@
         <v>2384687.702456113</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19948,11 +19998,17 @@
         <v>2765064.400856113</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19981,11 +20037,17 @@
         <v>3442529.815992824</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -20014,11 +20076,17 @@
         <v>3753655.828422548</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -20050,8 +20118,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -20083,8 +20157,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -20116,8 +20196,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -20149,8 +20235,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -20182,8 +20274,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -20215,8 +20313,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -20248,8 +20352,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -20281,8 +20391,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -20314,8 +20430,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -20347,8 +20469,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -20380,8 +20508,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -20413,8 +20547,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20443,15 +20583,23 @@
         <v>3816032.157682352</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L500" t="n">
-        <v>1</v>
-      </c>
-      <c r="M500" t="inlineStr"/>
+        <v>1.306639549436796</v>
+      </c>
+      <c r="M500" t="n">
+        <v>1.004827462900054</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -20575,7 +20723,7 @@
         <v>4176010.09610845</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -20608,7 +20756,7 @@
         <v>4065279.41760845</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -20641,7 +20789,7 @@
         <v>3923510.37740845</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -20674,7 +20822,7 @@
         <v>3877915.989108449</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -20707,7 +20855,7 @@
         <v>4019574.653508449</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -20740,7 +20888,7 @@
         <v>4168793.583999658</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -20773,7 +20921,7 @@
         <v>4029495.073697976</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20806,7 +20954,7 @@
         <v>4134835.200606626</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
